--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-1.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,14 +476,14 @@
         <v>0.833</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3.979130923426114</v>
+        <v>3.979130923426251</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-1.698531449361941</v>
+        <v>-1.698531449361996</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.833</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4.024378886086875</v>
+        <v>4.024378886087002</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-1.730500309623189</v>
+        <v>-1.730500309623251</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.833</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>4.036089864762317</v>
+        <v>4.036089864762449</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-1.746045514897916</v>
+        <v>-1.746045514897976</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.832</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4.009511821964863</v>
+        <v>4.009511821964991</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-1.755543905916344</v>
+        <v>-1.755543905916403</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.833</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>3.958943589890809</v>
+        <v>3.958943589890948</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1.763433419402656</v>
+        <v>-1.763433419402713</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.832</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>3.891855242012205</v>
+        <v>3.89185524201234</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1.752440949060475</v>
+        <v>-1.752440949060534</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.832</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>3.832501313490658</v>
+        <v>3.832501313490793</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1.753332370627007</v>
+        <v>-1.753332370627065</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.831</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3.765376498765906</v>
+        <v>3.765376498766032</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-1.747465984565494</v>
+        <v>-1.747465984565549</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.83</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3.698779716171021</v>
+        <v>3.698779716171146</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.502</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1.743898641176942</v>
+        <v>-1.743898641177002</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.83</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>3.636254480740702</v>
+        <v>3.636254480740821</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1.738117491708109</v>
+        <v>-1.738117491708167</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.829</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>3.575446447829481</v>
+        <v>3.575446447829597</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1.734775515622095</v>
+        <v>-1.734775515622151</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.829</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>3.512658239023019</v>
+        <v>3.512658239023141</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-1.718825914088612</v>
+        <v>-1.718825914088669</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.829</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>3.446659809623089</v>
+        <v>3.4466598096232</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1.708559823563943</v>
+        <v>-1.708559823564002</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.828</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>3.385633818222976</v>
+        <v>3.385633818223085</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-1.703020389791014</v>
+        <v>-1.70302038979107</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.828</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3.33117240896013</v>
+        <v>3.331172408960237</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1.707027210883374</v>
+        <v>-1.707027210883431</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.827</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3.277707688736049</v>
+        <v>3.277707688736163</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1.711226186614445</v>
+        <v>-1.711226186614505</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.827</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>3.221808317075282</v>
+        <v>3.221808317075385</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-1.711115878776639</v>
+        <v>-1.711115878776697</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.826</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>3.172128710173111</v>
+        <v>3.172128710173227</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-1.715101177051214</v>
+        <v>-1.715101177051271</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.826</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>3.125553984833438</v>
+        <v>3.125553984833543</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-1.715300486244912</v>
+        <v>-1.715300486244971</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.825</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>3.077446466544296</v>
+        <v>3.077446466544401</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1.724785176954575</v>
+        <v>-1.724785176954634</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.824</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>3.033982200274687</v>
+        <v>3.033982200274784</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1.724811954758857</v>
+        <v>-1.724811954758915</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.824</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>2.989152957373371</v>
+        <v>2.989152957373464</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-1.726722290498135</v>
+        <v>-1.726722290498195</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.824</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>2.954857929396576</v>
+        <v>2.954857929396677</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-1.736573471673668</v>
+        <v>-1.736573471673726</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.824</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>2.917336306927433</v>
+        <v>2.917336306927524</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-1.746874169435712</v>
+        <v>-1.746874169435768</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.823</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>2.878728742081274</v>
+        <v>2.878728742081373</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-1.75488296691251</v>
+        <v>-1.754882966912568</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.823</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>2.846998220544558</v>
+        <v>2.84699822054465</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.492</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-1.763566140917856</v>
+        <v>-1.763566140917914</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.822</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2.812148654030731</v>
+        <v>2.812148654030826</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-1.770748137747395</v>
+        <v>-1.770748137747454</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.823</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>2.774918269821931</v>
+        <v>2.77491826982203</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-1.771472864831158</v>
+        <v>-1.771472864831218</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.822</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>2.74203330221017</v>
+        <v>2.742033302210257</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.49</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-1.774717871036537</v>
+        <v>-1.774717871036599</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.822</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>2.709391383067119</v>
+        <v>2.709391383067211</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.49</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1.784965185143368</v>
+        <v>-1.784965185143429</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.821</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>2.68305070991489</v>
+        <v>2.683050709914982</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-1.788941643729169</v>
+        <v>-1.788941643729229</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.822</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>2.65123804675092</v>
+        <v>2.651238046751015</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1.797573971193737</v>
+        <v>-1.797573971193798</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.821</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>2.627322397128383</v>
+        <v>2.627322397128468</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1.805262151339194</v>
+        <v>-1.805262151339257</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.822</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>2.600637844471683</v>
+        <v>2.600637844471771</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.487</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-1.810774641093459</v>
+        <v>-1.810774641093519</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.822</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>2.577741799217547</v>
+        <v>2.577741799217631</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.486</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-1.816682252322346</v>
+        <v>-1.816682252322406</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.822</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>2.555094366533484</v>
+        <v>2.555094366533567</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.487</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-1.819035813386179</v>
+        <v>-1.819035813386239</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.823</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>2.53058406059446</v>
+        <v>2.530584060594545</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.486</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-1.81651585023261</v>
+        <v>-1.816515850232671</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.823</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>2.504200397712486</v>
+        <v>2.504200397712568</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.485</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-1.826463490515453</v>
+        <v>-1.826463490515512</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.823</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>2.47949688292945</v>
+        <v>2.479496882929537</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.484</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-1.838223415295274</v>
+        <v>-1.838223415295333</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.823</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>2.454606808274354</v>
+        <v>2.454606808274439</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-1.845273699515384</v>
+        <v>-1.845273699515446</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.823</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>2.425797398875098</v>
+        <v>2.425797398875174</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-1.853476530018756</v>
+        <v>-1.853476530018819</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.824</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>2.404795635322214</v>
+        <v>2.404795635322291</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.482</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-1.864640937329576</v>
+        <v>-1.864640937329635</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.823</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>2.382055131840922</v>
+        <v>2.382055131841002</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.481</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-1.874312421907309</v>
+        <v>-1.874312421907374</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.823</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>2.3739493279927</v>
+        <v>2.373949327992776</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.481</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-1.892508911916575</v>
+        <v>-1.892508911916639</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.825</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>2.377786775210827</v>
+        <v>2.377786775210905</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.481</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-1.879360006726923</v>
+        <v>-1.879360006726988</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.826</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>2.366578153555624</v>
+        <v>2.366578153555695</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.482</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-1.878490487925558</v>
+        <v>-1.878490487925623</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.827</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>2.350206018767545</v>
+        <v>2.350206018767622</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.481</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-1.881056699102521</v>
+        <v>-1.881056699102583</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.828</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>2.326334698044297</v>
+        <v>2.326334698044382</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.48</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-1.879775554449381</v>
+        <v>-1.879775554449445</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
@@ -1388,14 +1388,14 @@
         <v>0.828</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>2.301228771269834</v>
+        <v>2.301228771269915</v>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="n">
         <v>0.479</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-1.886667344322247</v>
+        <v>-1.886667344322309</v>
       </c>
       <c r="G50" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-1.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-1.xlsx
@@ -447,23 +447,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Reduction Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Reduction Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
@@ -473,17 +473,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.833</v>
+        <v>0.832</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3.979130923426251</v>
+        <v>3.984658773463561</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
-        <v>0.507</v>
+        <v>0.505</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-1.698531449361996</v>
+        <v>1.866972885176641</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.833</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4.024378886087002</v>
+        <v>4.073367702900841</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>0.508</v>
+        <v>0.504</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-1.730500309623251</v>
+        <v>1.934755970185376</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.833</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>4.036089864762449</v>
+        <v>4.068683015746071</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-1.746045514897976</v>
+        <v>1.842595821167112</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -530,17 +530,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.832</v>
+        <v>0.833</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4.009511821964991</v>
+        <v>4.038234867157183</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
-        <v>0.505</v>
+        <v>0.504</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-1.755543905916403</v>
+        <v>1.878998791503406</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.833</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>3.958943589890948</v>
+        <v>3.990892241740178</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
-        <v>0.504</v>
+        <v>0.503</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1.763433419402713</v>
+        <v>1.84888041453519</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -568,17 +568,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.832</v>
+        <v>0.833</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>3.89185524201234</v>
+        <v>3.938671294165345</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
-        <v>0.504</v>
+        <v>0.503</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1.752440949060534</v>
+        <v>1.861272144968937</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -587,17 +587,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.832</v>
+        <v>0.831</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>3.832501313490793</v>
+        <v>3.872301821463292</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
-        <v>0.503</v>
+        <v>0.501</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1.753332370627065</v>
+        <v>1.909114158481231</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -606,17 +606,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.831</v>
+        <v>0.83</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3.765376498766032</v>
+        <v>3.815070052336274</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
-        <v>0.503</v>
+        <v>0.501</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-1.747465984565549</v>
+        <v>1.865206593262276</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -625,17 +625,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.83</v>
+        <v>0.831</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3.698779716171146</v>
+        <v>3.741152467250322</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
-        <v>0.502</v>
+        <v>0.501</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1.743898641177002</v>
+        <v>1.851021686735689</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.83</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>3.636254480740821</v>
+        <v>3.652964025245539</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
-        <v>0.501</v>
+        <v>0.499</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1.738117491708167</v>
+        <v>1.88847739770184</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -663,17 +663,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.829</v>
+        <v>0.828</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>3.575446447829597</v>
+        <v>3.60044854220196</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
-        <v>0.501</v>
+        <v>0.499</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1.734775515622151</v>
+        <v>1.834877941529113</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -682,17 +682,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.829</v>
+        <v>0.827</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>3.512658239023141</v>
+        <v>3.532083827792611</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-1.718825914088669</v>
+        <v>1.785158876768404</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.829</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>3.4466598096232</v>
+        <v>3.52680899004795</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1.708559823564002</v>
+        <v>1.815133944013034</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -720,17 +720,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.828</v>
+        <v>0.829</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>3.385633818223085</v>
+        <v>3.45308835707034</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
-        <v>0.501</v>
+        <v>0.499</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-1.70302038979107</v>
+        <v>1.792413818956367</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -739,17 +739,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.828</v>
+        <v>0.825</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3.331172408960237</v>
+        <v>3.353351682656163</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1.707027210883431</v>
+        <v>1.816267757591802</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -758,17 +758,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.827</v>
+        <v>0.825</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3.277707688736163</v>
+        <v>3.33689121837196</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
-        <v>0.498</v>
+        <v>0.497</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1.711226186614505</v>
+        <v>1.793869479620228</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.827</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>3.221808317075385</v>
+        <v>3.292268164411927</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
-        <v>0.498</v>
+        <v>0.495</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-1.711115878776697</v>
+        <v>1.913062224022889</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -796,17 +796,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.826</v>
+        <v>0.824</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>3.172128710173227</v>
+        <v>3.245518003686619</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-1.715101177051271</v>
+        <v>1.789086619304526</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -815,17 +815,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.826</v>
+        <v>0.825</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>3.125553984833543</v>
+        <v>3.186805464670425</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-1.715300486244971</v>
+        <v>1.82601760666295</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.825</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>3.077446466544401</v>
+        <v>3.161810644325258</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1.724785176954634</v>
+        <v>1.804414883024835</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -853,17 +853,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.824</v>
+        <v>0.825</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>3.033982200274784</v>
+        <v>3.092027963655243</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
-        <v>0.495</v>
+        <v>0.494</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1.724811954758915</v>
+        <v>1.836175933973269</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -872,17 +872,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.824</v>
+        <v>0.823</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>2.989152957373464</v>
+        <v>3.051933078281059</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
-        <v>0.496</v>
+        <v>0.494</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-1.726722290498195</v>
+        <v>1.790541326641127</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -891,17 +891,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.824</v>
+        <v>0.823</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>2.954857929396677</v>
+        <v>2.981861735543379</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-1.736573471673726</v>
+        <v>1.824531965820892</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -910,17 +910,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.824</v>
+        <v>0.823</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>2.917336306927524</v>
+        <v>2.954519273312526</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>0.494</v>
+        <v>0.492</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-1.746874169435768</v>
+        <v>1.820963297572554</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -929,17 +929,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.823</v>
+        <v>0.822</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>2.878728742081373</v>
+        <v>2.887489683328767</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v>0.493</v>
+        <v>0.491</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-1.754882966912568</v>
+        <v>1.858040110604673</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.823</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>2.84699822054465</v>
+        <v>2.863732505255273</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.492</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-1.763566140917914</v>
+        <v>1.806393338169134</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -967,17 +967,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.822</v>
+        <v>0.823</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2.812148654030826</v>
+        <v>2.831009261845862</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-1.770748137747454</v>
+        <v>1.838812804275036</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -986,17 +986,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.823</v>
+        <v>0.822</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>2.77491826982203</v>
+        <v>2.819619857303479</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
-        <v>0.491</v>
+        <v>0.49</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-1.771472864831218</v>
+        <v>1.834564656856289</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.822</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>2.742033302210257</v>
+        <v>2.777022258512384</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-1.774717871036599</v>
+        <v>1.844746132791976</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1024,17 +1024,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.822</v>
+        <v>0.823</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>2.709391383067211</v>
+        <v>2.746096974175719</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1.784965185143429</v>
+        <v>1.841604765683865</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1043,17 +1043,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.821</v>
+        <v>0.823</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>2.683050709914982</v>
+        <v>2.718868210056502</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-1.788941643729229</v>
+        <v>1.807199486514597</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1062,17 +1062,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.822</v>
+        <v>0.823</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>2.651238046751015</v>
+        <v>2.701294461173873</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1.797573971193798</v>
+        <v>1.813401605041622</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1081,17 +1081,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.821</v>
+        <v>0.823</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>2.627322397128468</v>
+        <v>2.677773392062496</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1.805262151339257</v>
+        <v>1.852657748122977</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.822</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>2.600637844471771</v>
+        <v>2.670847698850132</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-1.810774641093519</v>
+        <v>1.897701426666901</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.822</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>2.577741799217631</v>
+        <v>2.667329294751309</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-1.816682252322406</v>
+        <v>1.900841764975013</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.822</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>2.555094366533567</v>
+        <v>2.64689675642845</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-1.819035813386239</v>
+        <v>1.893675660758229</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1157,17 +1157,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.823</v>
+        <v>0.822</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>2.530584060594545</v>
+        <v>2.596231828915131</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v>0.486</v>
+        <v>0.484</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-1.816515850232671</v>
+        <v>1.895092145533525</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.823</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>2.504200397712568</v>
+        <v>2.478613421829815</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
-        <v>0.485</v>
+        <v>0.484</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-1.826463490515512</v>
+        <v>1.903638688223199</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1195,17 +1195,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.823</v>
+        <v>0.822</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>2.479496882929537</v>
+        <v>2.446213836540218</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-1.838223415295333</v>
+        <v>1.916941169576236</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.823</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>2.454606808274439</v>
+        <v>2.447940010237588</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-1.845273699515446</v>
+        <v>1.921665721205157</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1233,17 +1233,17 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.823</v>
+        <v>0.822</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>2.425797398875174</v>
+        <v>2.386155776783726</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
-        <v>0.483</v>
+        <v>0.482</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-1.853476530018819</v>
+        <v>1.928159221062237</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1252,17 +1252,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.824</v>
+        <v>0.822</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>2.404795635322291</v>
+        <v>2.365571942052753</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.482</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-1.864640937329635</v>
+        <v>1.943101232831789</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1271,17 +1271,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.823</v>
+        <v>0.822</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>2.382055131841002</v>
+        <v>2.392707912763055</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.481</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-1.874312421907374</v>
+        <v>1.946294948696178</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1290,17 +1290,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.823</v>
+        <v>0.821</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>2.373949327992776</v>
+        <v>2.345007482250795</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.481</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-1.892508911916639</v>
+        <v>1.957408767464377</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1309,17 +1309,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.825</v>
+        <v>0.822</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>2.377786775210905</v>
+        <v>2.357729794227873</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-1.879360006726988</v>
+        <v>1.960458469028699</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1328,17 +1328,17 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.826</v>
+        <v>0.824</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>2.366578153555695</v>
+        <v>2.393250118097463</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v>0.482</v>
+        <v>0.479</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-1.878490487925623</v>
+        <v>1.958807264432226</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.827</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>2.350206018767622</v>
+        <v>2.396537081226496</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-1.881056699102583</v>
+        <v>1.939851434566341</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1366,17 +1366,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.828</v>
+        <v>0.827</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>2.326334698044382</v>
+        <v>2.372716811656496</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
-        <v>0.48</v>
+        <v>0.478</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-1.879775554449445</v>
+        <v>1.940071421243908</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
@@ -1385,17 +1385,17 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.828</v>
+        <v>0.827</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>2.301228771269915</v>
+        <v>2.334053846066976</v>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-1.886667344322309</v>
+        <v>1.951116653914085</v>
       </c>
       <c r="G50" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-1.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-1.xlsx
@@ -476,14 +476,14 @@
         <v>0.832</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3.984658773463561</v>
+        <v>4.013454510219191</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.866972885176641</v>
+        <v>1.864536610969007</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -492,17 +492,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.833</v>
+        <v>0.832</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4.073367702900841</v>
+        <v>4.052980727281875</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.934755970185376</v>
+        <v>1.887424851491299</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.833</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>4.068683015746071</v>
+        <v>4.068988240385598</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v>0.506</v>
+        <v>0.505</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.842595821167112</v>
+        <v>1.876180828437931</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.833</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4.038234867157183</v>
+        <v>4.045593592941662</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.878998791503406</v>
+        <v>1.878499282166402</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.833</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>3.990892241740178</v>
+        <v>3.994155925480338</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.84888041453519</v>
+        <v>1.885531923222286</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.833</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>3.938671294165345</v>
+        <v>3.940169015609971</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.861272144968937</v>
+        <v>1.883583485260555</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -587,17 +587,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.831</v>
+        <v>0.832</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>3.872301821463292</v>
+        <v>3.893300151305996</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.909114158481231</v>
+        <v>1.891316133645941</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.83</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3.815070052336274</v>
+        <v>3.811467101014681</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.865206593262276</v>
+        <v>1.871899443165199</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.831</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3.741152467250322</v>
+        <v>3.754532391495748</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.851021686735689</v>
+        <v>1.868675847852995</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.83</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>3.652964025245539</v>
+        <v>3.681507080485484</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
-        <v>0.499</v>
+        <v>0.501</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.88847739770184</v>
+        <v>1.86611339774206</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.828</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>3.60044854220196</v>
+        <v>3.612201970232096</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.834877941529113</v>
+        <v>1.851017600030819</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -682,17 +682,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.827</v>
+        <v>0.829</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>3.532083827792611</v>
+        <v>3.567425092776129</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.785158876768404</v>
+        <v>1.816683404596252</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.829</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>3.52680899004795</v>
+        <v>3.510923971727012</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.815133944013034</v>
+        <v>1.81528585197244</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.829</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>3.45308835707034</v>
+        <v>3.444818813795659</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.792413818956367</v>
+        <v>1.803925840855952</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -739,17 +739,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.825</v>
+        <v>0.826</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3.353351682656163</v>
+        <v>3.36814123223636</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.816267757591802</v>
+        <v>1.822233392987442</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.825</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3.33689121837196</v>
+        <v>3.329478641830908</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.793869479620228</v>
+        <v>1.852872793434414</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -777,17 +777,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.827</v>
+        <v>0.826</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>3.292268164411927</v>
+        <v>3.277161761733579</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
-        <v>0.495</v>
+        <v>0.496</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.913062224022889</v>
+        <v>1.862448748081103</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.824</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>3.245518003686619</v>
+        <v>3.225439043222934</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.789086619304526</v>
+        <v>1.854591438063149</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.825</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>3.186805464670425</v>
+        <v>3.171798430826728</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.82601760666295</v>
+        <v>1.844556512037964</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.825</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>3.161810644325258</v>
+        <v>3.140812808110479</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.804414883024835</v>
+        <v>1.835662406315031</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.825</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>3.092027963655243</v>
+        <v>3.083439973861981</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.836175933973269</v>
+        <v>1.889529246338576</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.823</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>3.051933078281059</v>
+        <v>3.051284863786905</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.790541326641127</v>
+        <v>1.825160615678868</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.823</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>2.981861735543379</v>
+        <v>3.007199563955399</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.824531965820892</v>
+        <v>1.823806775881685</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.823</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>2.954519273312526</v>
+        <v>2.967408605226636</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.492</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.820963297572554</v>
+        <v>1.835317779368363</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -929,17 +929,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.822</v>
+        <v>0.823</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>2.887489683328767</v>
+        <v>2.925891506181463</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.858040110604673</v>
+        <v>1.841627325412294</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.823</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>2.863732505255273</v>
+        <v>2.900588719647346</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.806393338169134</v>
+        <v>1.842354364042067</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.823</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2.831009261845862</v>
+        <v>2.856551752211387</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
-        <v>0.492</v>
+        <v>0.49</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.838812804275036</v>
+        <v>1.847701721185702</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.822</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>2.819619857303479</v>
+        <v>2.826752691923944</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.834564656856289</v>
+        <v>1.858541076002257</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.822</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>2.777022258512384</v>
+        <v>2.782255289471018</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.844746132791976</v>
+        <v>1.84857022252377</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.823</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>2.746096974175719</v>
+        <v>2.737776931854559</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.841604765683865</v>
+        <v>1.854063509485163</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.823</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>2.718868210056502</v>
+        <v>2.720667927524809</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.807199486514597</v>
+        <v>1.848461588677191</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.823</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>2.701294461173873</v>
+        <v>2.685462397577789</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.813401605041622</v>
+        <v>1.857167642967506</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.823</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>2.677773392062496</v>
+        <v>2.682606527083206</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.487</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.852657748122977</v>
+        <v>1.877681309498185</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1100,17 +1100,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.822</v>
+        <v>0.821</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>2.670847698850132</v>
+        <v>2.646865442046262</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.486</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.897701426666901</v>
+        <v>1.887518534003481</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1119,17 +1119,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.822</v>
+        <v>0.821</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>2.667329294751309</v>
+        <v>2.629219112916017</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.485</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.900841764975013</v>
+        <v>1.900579304722045</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.822</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>2.64689675642845</v>
+        <v>2.607339258199665</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.485</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.893675660758229</v>
+        <v>1.898471043635322</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.822</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>2.596231828915131</v>
+        <v>2.575473343804668</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.484</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.895092145533525</v>
+        <v>1.89271076028321</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.823</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>2.478613421829815</v>
+        <v>2.525172827007396</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.484</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.903638688223199</v>
+        <v>1.90394160788402</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1195,17 +1195,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.822</v>
+        <v>0.823</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>2.446213836540218</v>
+        <v>2.49851131289649</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.916941169576236</v>
+        <v>1.917316168908785</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.823</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>2.447940010237588</v>
+        <v>2.484755346364925</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.921665721205157</v>
+        <v>1.924545621353933</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1233,17 +1233,17 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.822</v>
+        <v>0.823</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>2.386155776783726</v>
+        <v>2.459466921265332</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.482</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.928159221062237</v>
+        <v>1.935541410913036</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1252,17 +1252,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.822</v>
+        <v>0.823</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>2.365571942052753</v>
+        <v>2.439036923139532</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.482</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.943101232831789</v>
+        <v>1.946999065423492</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1271,17 +1271,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.822</v>
+        <v>0.823</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>2.392707912763055</v>
+        <v>2.408618918837087</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1.946294948696178</v>
+        <v>1.955232804804467</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1290,17 +1290,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.821</v>
+        <v>0.823</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>2.345007482250795</v>
+        <v>2.396765485841735</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.481</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>1.957408767464377</v>
+        <v>1.974432348413045</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1309,17 +1309,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.822</v>
+        <v>0.824</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>2.357729794227873</v>
+        <v>2.401332913205628</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.48</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>1.960458469028699</v>
+        <v>1.957207309302557</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.824</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>2.393250118097463</v>
+        <v>2.402338942978228</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.479</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>1.958807264432226</v>
+        <v>1.957676469761624</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.827</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>2.396537081226496</v>
+        <v>2.386614461111688</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.48</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>1.939851434566341</v>
+        <v>1.957339766290823</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.827</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>2.372716811656496</v>
+        <v>2.369177650097869</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.478</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1.940071421243908</v>
+        <v>1.955634114655929</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
@@ -1388,14 +1388,14 @@
         <v>0.827</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>2.334053846066976</v>
+        <v>2.345309405062672</v>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="n">
         <v>0.478</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>1.951116653914085</v>
+        <v>1.962309215391625</v>
       </c>
       <c r="G50" s="2" t="inlineStr"/>
     </row>
